--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N2">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O2">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P2">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q2">
-        <v>0.009885793437111112</v>
+        <v>2.193299712356</v>
       </c>
       <c r="R2">
-        <v>0.08897214093400001</v>
+        <v>19.739697411204</v>
       </c>
       <c r="S2">
-        <v>1.052342555450346E-07</v>
+        <v>1.444197987482326E-05</v>
       </c>
       <c r="T2">
-        <v>1.052342555450346E-07</v>
+        <v>1.444197987482326E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N3">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q3">
-        <v>76.47293094955111</v>
+        <v>0.02918652322233334</v>
       </c>
       <c r="R3">
-        <v>688.2563785459599</v>
+        <v>0.262678709001</v>
       </c>
       <c r="S3">
-        <v>0.0008140542293360478</v>
+        <v>1.921812958887504E-07</v>
       </c>
       <c r="T3">
-        <v>0.0008140542293360478</v>
+        <v>1.921812958887504E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N4">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q4">
-        <v>100.02877929639</v>
+        <v>389.5779555540561</v>
       </c>
       <c r="R4">
-        <v>900.2590136675101</v>
+        <v>3506.201599986504</v>
       </c>
       <c r="S4">
-        <v>0.001064806197833148</v>
+        <v>0.002565211203052057</v>
       </c>
       <c r="T4">
-        <v>0.001064806197833148</v>
+        <v>0.002565211203052057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.47189100000001</v>
+        <v>196.552851</v>
       </c>
       <c r="N5">
-        <v>241.415673</v>
+        <v>589.658553</v>
       </c>
       <c r="O5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q5">
-        <v>50.62009196256734</v>
+        <v>365.0302893160111</v>
       </c>
       <c r="R5">
-        <v>455.580827663106</v>
+        <v>3285.272603844099</v>
       </c>
       <c r="S5">
-        <v>0.000538850799097684</v>
+        <v>0.002403574879577182</v>
       </c>
       <c r="T5">
-        <v>0.0005388507990976839</v>
+        <v>0.002403574879577182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.87880433333333</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>248.636413</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01571566666666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N6">
-        <v>0.047147</v>
+        <v>414.554168</v>
       </c>
       <c r="O6">
-        <v>4.352450124452221E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P6">
-        <v>4.352450124452222E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q6">
-        <v>1.302495662634556</v>
+        <v>256.6312777323494</v>
       </c>
       <c r="R6">
-        <v>11.722460963711</v>
+        <v>2309.681499591144</v>
       </c>
       <c r="S6">
-        <v>1.386506427429851E-05</v>
+        <v>0.001689811806102673</v>
       </c>
       <c r="T6">
-        <v>1.386506427429851E-05</v>
+        <v>0.001689811806102673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>248.636413</v>
       </c>
       <c r="I7">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J7">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>121.5707266666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N7">
-        <v>364.71218</v>
+        <v>3.542988</v>
       </c>
       <c r="O7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q7">
-        <v>10075.63646806781</v>
+        <v>97.87953640244933</v>
       </c>
       <c r="R7">
-        <v>90680.72821261034</v>
+        <v>880.9158276220439</v>
       </c>
       <c r="S7">
-        <v>0.1072551343101264</v>
+        <v>0.0006444966398882026</v>
       </c>
       <c r="T7">
-        <v>0.1072551343101264</v>
+        <v>0.0006444966398882026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>159.017985</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N8">
-        <v>477.053955</v>
+        <v>0.047147</v>
       </c>
       <c r="O8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q8">
-        <v>13179.22046429594</v>
+        <v>1.302495662634556</v>
       </c>
       <c r="R8">
-        <v>118612.9841786634</v>
+        <v>11.722460963711</v>
       </c>
       <c r="S8">
-        <v>0.1402927810546442</v>
+        <v>8.576400225123283E-06</v>
       </c>
       <c r="T8">
-        <v>0.1402927810546442</v>
+        <v>8.576400225123283E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.47189100000001</v>
+        <v>209.770696</v>
       </c>
       <c r="N9">
-        <v>241.415673</v>
+        <v>629.312088</v>
       </c>
       <c r="O9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q9">
-        <v>6669.414108522329</v>
+        <v>17385.54446865115</v>
       </c>
       <c r="R9">
-        <v>60024.72697670096</v>
+        <v>156469.9002178604</v>
       </c>
       <c r="S9">
-        <v>0.0709959026654513</v>
+        <v>0.1144766863892931</v>
       </c>
       <c r="T9">
-        <v>0.07099590266545129</v>
+        <v>0.1144766863892931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01571566666666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N10">
-        <v>0.047147</v>
+        <v>589.658553</v>
       </c>
       <c r="O10">
-        <v>4.352450124452221E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P10">
-        <v>4.352450124452222E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q10">
-        <v>0.6446649654928889</v>
+        <v>16290.06527918782</v>
       </c>
       <c r="R10">
-        <v>5.801984689436</v>
+        <v>146610.5875126904</v>
       </c>
       <c r="S10">
-        <v>6.862457540831891E-06</v>
+        <v>0.1072634048125028</v>
       </c>
       <c r="T10">
-        <v>6.862457540831892E-06</v>
+        <v>0.1072634048125028</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>121.5707266666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N11">
-        <v>364.71218</v>
+        <v>414.554168</v>
       </c>
       <c r="O11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q11">
-        <v>4986.895559304648</v>
+        <v>11452.5845917466</v>
       </c>
       <c r="R11">
-        <v>44882.06003374184</v>
+        <v>103073.2613257194</v>
       </c>
       <c r="S11">
-        <v>0.05308549536289134</v>
+        <v>0.0754105767018261</v>
       </c>
       <c r="T11">
-        <v>0.05308549536289134</v>
+        <v>0.0754105767018261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H12">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I12">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J12">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>159.017985</v>
+        <v>1.180996</v>
       </c>
       <c r="N12">
-        <v>477.053955</v>
+        <v>3.542988</v>
       </c>
       <c r="O12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q12">
-        <v>6523.00191822006</v>
+        <v>70.57342200848532</v>
       </c>
       <c r="R12">
-        <v>58707.01726398055</v>
+        <v>635.160798076368</v>
       </c>
       <c r="S12">
-        <v>0.06943734513062184</v>
+        <v>0.0004646970656140411</v>
       </c>
       <c r="T12">
-        <v>0.06943734513062184</v>
+        <v>0.0004646970656140411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H13">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I13">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J13">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>80.47189100000001</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N13">
-        <v>241.415673</v>
+        <v>0.047147</v>
       </c>
       <c r="O13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q13">
-        <v>3300.999565274303</v>
+        <v>0.9391296632768888</v>
       </c>
       <c r="R13">
-        <v>29708.99608746873</v>
+        <v>8.452166969492</v>
       </c>
       <c r="S13">
-        <v>0.03513913516562785</v>
+        <v>6.183784012958891E-06</v>
       </c>
       <c r="T13">
-        <v>0.03513913516562785</v>
+        <v>6.183784012958892E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01571566666666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N14">
-        <v>0.047147</v>
+        <v>629.312088</v>
       </c>
       <c r="O14">
-        <v>4.352450124452221E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P14">
-        <v>4.352450124452222E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q14">
-        <v>0.006213906498777777</v>
+        <v>12535.38187582489</v>
       </c>
       <c r="R14">
-        <v>0.055925158489</v>
+        <v>112818.436882424</v>
       </c>
       <c r="S14">
-        <v>6.614702487819967E-08</v>
+        <v>0.08254035312821981</v>
       </c>
       <c r="T14">
-        <v>6.614702487819968E-08</v>
+        <v>0.08254035312821982</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>121.5707266666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N15">
-        <v>364.71218</v>
+        <v>589.658553</v>
       </c>
       <c r="O15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q15">
-        <v>48.06853851751777</v>
+        <v>11745.51590402841</v>
       </c>
       <c r="R15">
-        <v>432.6168466576599</v>
+        <v>105709.6431362557</v>
       </c>
       <c r="S15">
-        <v>0.0005116895166997356</v>
+        <v>0.07733940936105951</v>
       </c>
       <c r="T15">
-        <v>0.0005116895166997356</v>
+        <v>0.07733940936105953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>159.017985</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N16">
-        <v>477.053955</v>
+        <v>414.554168</v>
       </c>
       <c r="O16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q16">
-        <v>62.875022191065</v>
+        <v>8257.579829127428</v>
       </c>
       <c r="R16">
-        <v>565.875199719585</v>
+        <v>74318.21846214685</v>
       </c>
       <c r="S16">
-        <v>0.0006693045120501526</v>
+        <v>0.05437277953175969</v>
       </c>
       <c r="T16">
-        <v>0.0006693045120501526</v>
+        <v>0.0543727795317597</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H17">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I17">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J17">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>80.47189100000001</v>
+        <v>1.180996</v>
       </c>
       <c r="N17">
-        <v>241.415673</v>
+        <v>3.542988</v>
       </c>
       <c r="O17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q17">
-        <v>31.81823698987234</v>
+        <v>0.4363634563826667</v>
       </c>
       <c r="R17">
-        <v>286.364132908851</v>
+        <v>3.927271107444</v>
       </c>
       <c r="S17">
-        <v>0.0003387050825697991</v>
+        <v>2.873274555084563E-06</v>
       </c>
       <c r="T17">
-        <v>0.0003387050825697991</v>
+        <v>2.873274555084563E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H18">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I18">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J18">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>4.352450124452221E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P18">
-        <v>4.352450124452222E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q18">
-        <v>1.651458337309111</v>
+        <v>0.005806745006777777</v>
       </c>
       <c r="R18">
-        <v>14.863125035782</v>
+        <v>0.052260705061</v>
       </c>
       <c r="S18">
-        <v>1.757977139578499E-05</v>
+        <v>3.823503648574929E-08</v>
       </c>
       <c r="T18">
-        <v>1.757977139578499E-05</v>
+        <v>3.823503648574929E-08</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H19">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I19">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J19">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.5707266666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N19">
-        <v>364.71218</v>
+        <v>629.312088</v>
       </c>
       <c r="O19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q19">
-        <v>12775.08580353323</v>
+        <v>77.50768500008267</v>
       </c>
       <c r="R19">
-        <v>114975.7722317991</v>
+        <v>697.569165000744</v>
       </c>
       <c r="S19">
-        <v>0.135990768228273</v>
+        <v>0.0005103563460157183</v>
       </c>
       <c r="T19">
-        <v>0.135990768228273</v>
+        <v>0.0005103563460157183</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>159.017985</v>
+        <v>196.552851</v>
       </c>
       <c r="N20">
-        <v>477.053955</v>
+        <v>589.658553</v>
       </c>
       <c r="O20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q20">
-        <v>16710.17734598247</v>
+        <v>72.623854292671</v>
       </c>
       <c r="R20">
-        <v>150391.5961138422</v>
+        <v>653.614688634039</v>
       </c>
       <c r="S20">
-        <v>0.1778798114907651</v>
+        <v>0.0004781983220160165</v>
       </c>
       <c r="T20">
-        <v>0.177879811490765</v>
+        <v>0.0004781983220160165</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.47189100000001</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N21">
-        <v>241.415673</v>
+        <v>414.554168</v>
       </c>
       <c r="O21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q21">
-        <v>8456.273483635017</v>
+        <v>51.05755074708711</v>
       </c>
       <c r="R21">
-        <v>76106.46135271514</v>
+        <v>459.517956723784</v>
       </c>
       <c r="S21">
-        <v>0.09001701789508523</v>
+        <v>0.0003361930502216353</v>
       </c>
       <c r="T21">
-        <v>0.09001701789508522</v>
+        <v>0.0003361930502216353</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H22">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I22">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J22">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N22">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O22">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P22">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q22">
-        <v>0.4740091593091111</v>
+        <v>151.0099825001333</v>
       </c>
       <c r="R22">
-        <v>4.266082433782</v>
+        <v>1359.0898425012</v>
       </c>
       <c r="S22">
-        <v>5.045826753183589E-06</v>
+        <v>0.0009943388565996185</v>
       </c>
       <c r="T22">
-        <v>5.04582675318359E-06</v>
+        <v>0.0009943388565996185</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H23">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I23">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J23">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N23">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q23">
-        <v>3666.763820213231</v>
+        <v>2.009509387255555</v>
       </c>
       <c r="R23">
-        <v>33000.87438191908</v>
+        <v>18.0855844853</v>
       </c>
       <c r="S23">
-        <v>0.03903269508252718</v>
+        <v>1.323179589434179E-05</v>
       </c>
       <c r="T23">
-        <v>0.03903269508252718</v>
+        <v>1.323179589434179E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H24">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I24">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J24">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,462 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N24">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q24">
-        <v>4796.23187381247</v>
+        <v>26822.67266951014</v>
       </c>
       <c r="R24">
-        <v>43166.08686431224</v>
+        <v>241404.0540255912</v>
       </c>
       <c r="S24">
-        <v>0.05105588073156384</v>
+        <v>0.1766163086147169</v>
       </c>
       <c r="T24">
-        <v>0.05105588073156384</v>
+        <v>0.1766163086147169</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>127.8666333333333</v>
+      </c>
+      <c r="H25">
+        <v>383.5999</v>
+      </c>
+      <c r="I25">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="J25">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>196.552851</v>
+      </c>
+      <c r="N25">
+        <v>589.658553</v>
+      </c>
+      <c r="O25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q25">
+        <v>25132.5513294383</v>
+      </c>
+      <c r="R25">
+        <v>226192.9619649447</v>
+      </c>
+      <c r="S25">
+        <v>0.165487552137971</v>
+      </c>
+      <c r="T25">
+        <v>0.165487552137971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>127.8666333333333</v>
+      </c>
+      <c r="H26">
+        <v>383.5999</v>
+      </c>
+      <c r="I26">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="J26">
+        <v>0.4594559737541049</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N26">
+        <v>414.554168</v>
+      </c>
+      <c r="O26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q26">
+        <v>17669.21526548702</v>
+      </c>
+      <c r="R26">
+        <v>159022.9373893832</v>
+      </c>
+      <c r="S26">
+        <v>0.116344542348923</v>
+      </c>
+      <c r="T26">
+        <v>0.116344542348923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>30.16156866666667</v>
-      </c>
-      <c r="H25">
-        <v>90.484706</v>
-      </c>
-      <c r="I25">
-        <v>0.115930719684436</v>
-      </c>
-      <c r="J25">
-        <v>0.115930719684436</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>80.47189100000001</v>
-      </c>
-      <c r="N25">
-        <v>241.415673</v>
-      </c>
-      <c r="O25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="P25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="Q25">
-        <v>2427.158466133016</v>
-      </c>
-      <c r="R25">
-        <v>21844.42619519714</v>
-      </c>
-      <c r="S25">
-        <v>0.02583709804359178</v>
-      </c>
-      <c r="T25">
-        <v>0.02583709804359177</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H27">
+        <v>16.711339</v>
+      </c>
+      <c r="I27">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J27">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>1.180996</v>
+      </c>
+      <c r="N27">
+        <v>3.542988</v>
+      </c>
+      <c r="O27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="P27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="Q27">
+        <v>6.578674837881334</v>
+      </c>
+      <c r="R27">
+        <v>59.20807354093201</v>
+      </c>
+      <c r="S27">
+        <v>4.331787811599693E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.331787811599694E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H28">
+        <v>16.711339</v>
+      </c>
+      <c r="I28">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J28">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.047147</v>
+      </c>
+      <c r="O28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="P28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.08754327775922223</v>
+      </c>
+      <c r="R28">
+        <v>0.7878894998330002</v>
+      </c>
+      <c r="S28">
+        <v>5.764366121293405E-07</v>
+      </c>
+      <c r="T28">
+        <v>5.764366121293406E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H29">
+        <v>16.711339</v>
+      </c>
+      <c r="I29">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J29">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>209.770696</v>
+      </c>
+      <c r="N29">
+        <v>629.312088</v>
+      </c>
+      <c r="O29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="P29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="Q29">
+        <v>1168.516404373981</v>
+      </c>
+      <c r="R29">
+        <v>10516.64763936583</v>
+      </c>
+      <c r="S29">
+        <v>0.00769420170909626</v>
+      </c>
+      <c r="T29">
+        <v>0.007694201709096261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H30">
+        <v>16.711339</v>
+      </c>
+      <c r="I30">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J30">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>196.552851</v>
+      </c>
+      <c r="N30">
+        <v>589.658553</v>
+      </c>
+      <c r="O30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q30">
+        <v>1094.887108159163</v>
+      </c>
+      <c r="R30">
+        <v>9853.983973432469</v>
+      </c>
+      <c r="S30">
+        <v>0.007209382964014872</v>
+      </c>
+      <c r="T30">
+        <v>0.007209382964014873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H31">
+        <v>16.711339</v>
+      </c>
+      <c r="I31">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J31">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N31">
+        <v>414.554168</v>
+      </c>
+      <c r="O31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q31">
+        <v>769.7505817012169</v>
+      </c>
+      <c r="R31">
+        <v>6927.755235310953</v>
+      </c>
+      <c r="S31">
+        <v>0.005068492165907003</v>
+      </c>
+      <c r="T31">
+        <v>0.005068492165907003</v>
       </c>
     </row>
   </sheetData>
